--- a/Data Output/2024-03-08.xlsx
+++ b/Data Output/2024-03-08.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1548,4 +1549,387 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Forrest</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Spawns</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-03-08 09:36:37</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-03-08 09:36:53</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-03-08 09:37:40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-03-08 09:38:37</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-03-08 09:40:19</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-03-08 09:43:35</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>